--- a/database/Alcohol_Dehydration.xlsx
+++ b/database/Alcohol_Dehydration.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Reactants</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>CCO</t>
-  </si>
-  <si>
-    <t>CCO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -43,74 +40,141 @@
     <t>CC(O)C</t>
   </si>
   <si>
-    <t>COCC</t>
+    <t>CO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CCOCC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CCOCCC</t>
-  </si>
-  <si>
-    <t>CCCOCC</t>
-  </si>
-  <si>
-    <t>CCCOC</t>
-  </si>
-  <si>
     <t>CCCOCCC</t>
-  </si>
-  <si>
-    <t>CCCCOC</t>
-  </si>
-  <si>
-    <t>CCCCOCC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCCCOCCC</t>
-  </si>
-  <si>
-    <t>COC(C)C</t>
-  </si>
-  <si>
-    <t>CCOC(C)C</t>
-  </si>
-  <si>
-    <t>CCCOC(C)C</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Propanol</t>
-  </si>
-  <si>
-    <t>Butanol</t>
-  </si>
-  <si>
-    <t>Isopropanol</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Isobutanol</t>
-  </si>
-  <si>
-    <t>OCC(C)C</t>
-  </si>
-  <si>
-    <t>COCC(C)C</t>
-  </si>
-  <si>
-    <t>CCOCC(C)C</t>
-  </si>
-  <si>
-    <t>CCCOCC(C)C</t>
-  </si>
-  <si>
-    <t>CC(OCC(C)C)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCOCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC(OC(C)C)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC(O)C</t>
+  </si>
+  <si>
+    <t>CCC(OC(CC)C)C</t>
+  </si>
+  <si>
+    <t>CCCCCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCOCCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCC(O)C</t>
+  </si>
+  <si>
+    <t>CCCC(OC(CCC)C)C</t>
+  </si>
+  <si>
+    <t>CCCCCCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCOCCCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC(CCCOCCCC(C)C)C</t>
+  </si>
+  <si>
+    <t>OCCCC(C)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCCCCOCCCCCCCCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCCCO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCOCCCCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCOCCCCCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCCOCCCCCCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCCCCCCCOCCCCCCCCCC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCC(CO)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCCCC(COCC(CCCC)C)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC(CCCCOCCCCC(CC)C)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCCCCC(CC)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCCCCC(CC)CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC(CCCCOCCCCC(CC)CC)CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC(C(COCC(C(C)C)CCC(C)C)CCC(C)C)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCC(C(C)C)CCC(C)C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCC(CCC(C(C)C)CO)C</t>
+  </si>
+  <si>
+    <t>CCC(CCC(C(C)C)COCC(C(C)C)CCC(CC)C)C</t>
   </si>
 </sst>
 </file>
@@ -441,18 +505,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -466,17 +530,21 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -485,8 +553,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -494,130 +565,167 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
+      <c r="A6" s="2">
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
+      <c r="A12" s="2">
+        <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>8</v>
+      </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>